--- a/biology/Zoologie/Herminia_tarsicrinalis/Herminia_tarsicrinalis.xlsx
+++ b/biology/Zoologie/Herminia_tarsicrinalis/Herminia_tarsicrinalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herminia tarsicrinalis, l’Herminie de la ronce, est une espèce de lépidoptères (papillons) de la famille des Erebidae (ou des Noctuidae selon les classifications), de la sous-famille des Herminiinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique, ce papillon se trouve couramment dans toute l'Europe sauf dans le Grand Nord. Présent en France.
 </t>
@@ -542,7 +556,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Univoltin ou bivoltin, l'adulte vole de mai à septembre selon les régions.
 </t>
@@ -573,9 +589,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa larve se nourrit de feuilles sèches de ronces et de clématites[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa larve se nourrit de feuilles sèches de ronces et de clématites.
 </t>
         </is>
       </c>
